--- a/MIS311_Huynh Ngoc Anh_4-shoe price.xlsx
+++ b/MIS311_Huynh Ngoc Anh_4-shoe price.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhngocanh/Documents/MIS 311/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F90996-6C1C-5640-AD9F-E02DE1B16275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{841584C5-384A-4643-B350-FD720B231B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{EEDF02F8-B777-4BDD-930F-D25699A8923B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{EEDF02F8-B777-4BDD-930F-D25699A8923B}"/>
   </bookViews>
   <sheets>
     <sheet name="Pivot Table" sheetId="2" r:id="rId1"/>
@@ -19,24 +19,13 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Cleaned_Shoe Price_Data'!$D$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">'Cleaned_Shoe Price_Data'!$D$2:$D$200</definedName>
-    <definedName name="Slicer_price">#N/A</definedName>
-    <definedName name="Slicer_size">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="2" r:id="rId3"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId5"/>
-        <x14:slicerCache r:id="rId6"/>
-      </x14:slicerCaches>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -937,20 +926,13 @@
     <xf numFmtId="0" fontId="18" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -963,6 +945,13 @@
     <xf numFmtId="0" fontId="21" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1258,49 +1247,7 @@
           </a:effectLst>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="6"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -3276,162 +3223,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>142869</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="size">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5FF3442-A15D-F0E5-6AD0-DB969585B6EC}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="size"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="4229100" y="4648200"/>
-              <a:ext cx="1828800" cy="2428869"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>155569</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="price">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA47CED7-60CA-97B5-F48B-06B501DE162E}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="price"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2171700" y="4660900"/>
-              <a:ext cx="1828800" cy="2428869"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5616,7 +5407,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC104DCE-EDA6-7B46-A9C9-ED070DBB5565}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EC104DCE-EDA6-7B46-A9C9-ED070DBB5565}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A3:B28" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0">
@@ -5962,7 +5753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1992DEF-B5FA-5842-B3B8-1AD587057E6A}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E1992DEF-B5FA-5842-B3B8-1AD587057E6A}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="S14:T40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0" sortType="ascending">
@@ -6095,204 +5886,6 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_size" xr10:uid="{D6A58705-EB65-F145-9C6A-CC29E5AF4863}" sourceName="size">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="135140085">
-      <items count="21">
-        <i x="13" s="1"/>
-        <i x="10" s="1"/>
-        <i x="7" s="1"/>
-        <i x="14" s="1"/>
-        <i x="1" s="1"/>
-        <i x="18" s="1"/>
-        <i x="3" s="1"/>
-        <i x="2" s="1"/>
-        <i x="0" s="1"/>
-        <i x="8" s="1"/>
-        <i x="16" s="1"/>
-        <i x="4" s="1"/>
-        <i x="19" s="1"/>
-        <i x="9" s="1"/>
-        <i x="5" s="1"/>
-        <i x="17" s="1"/>
-        <i x="6" s="1"/>
-        <i x="11" s="1"/>
-        <i x="12" s="1"/>
-        <i x="15" s="1"/>
-        <i x="20" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_price" xr10:uid="{9A847ED4-DB14-1841-8104-3D72BCC35281}" sourceName="price">
-  <pivotTables>
-    <pivotTable tabId="2" name="PivotTable1"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="135140085">
-      <items count="142">
-        <i x="82" s="1"/>
-        <i x="118" s="1"/>
-        <i x="57" s="1"/>
-        <i x="81" s="1"/>
-        <i x="96" s="1"/>
-        <i x="41" s="1"/>
-        <i x="45" s="1"/>
-        <i x="14" s="1"/>
-        <i x="119" s="1"/>
-        <i x="8" s="1"/>
-        <i x="115" s="1"/>
-        <i x="34" s="1"/>
-        <i x="72" s="1"/>
-        <i x="29" s="1"/>
-        <i x="107" s="1"/>
-        <i x="108" s="1"/>
-        <i x="120" s="1"/>
-        <i x="79" s="1"/>
-        <i x="70" s="1"/>
-        <i x="63" s="1"/>
-        <i x="100" s="1"/>
-        <i x="98" s="1"/>
-        <i x="65" s="1"/>
-        <i x="141" s="1"/>
-        <i x="102" s="1"/>
-        <i x="138" s="1"/>
-        <i x="132" s="1"/>
-        <i x="40" s="1"/>
-        <i x="97" s="1"/>
-        <i x="33" s="1"/>
-        <i x="2" s="1"/>
-        <i x="101" s="1"/>
-        <i x="69" s="1"/>
-        <i x="44" s="1"/>
-        <i x="22" s="1"/>
-        <i x="87" s="1"/>
-        <i x="15" s="1"/>
-        <i x="25" s="1"/>
-        <i x="83" s="1"/>
-        <i x="62" s="1"/>
-        <i x="133" s="1"/>
-        <i x="59" s="1"/>
-        <i x="110" s="1"/>
-        <i x="58" s="1"/>
-        <i x="125" s="1"/>
-        <i x="136" s="1"/>
-        <i x="49" s="1"/>
-        <i x="129" s="1"/>
-        <i x="42" s="1"/>
-        <i x="38" s="1"/>
-        <i x="123" s="1"/>
-        <i x="135" s="1"/>
-        <i x="68" s="1"/>
-        <i x="51" s="1"/>
-        <i x="139" s="1"/>
-        <i x="111" s="1"/>
-        <i x="121" s="1"/>
-        <i x="32" s="1"/>
-        <i x="36" s="1"/>
-        <i x="71" s="1"/>
-        <i x="3" s="1"/>
-        <i x="39" s="1"/>
-        <i x="84" s="1"/>
-        <i x="127" s="1"/>
-        <i x="31" s="1"/>
-        <i x="1" s="1"/>
-        <i x="19" s="1"/>
-        <i x="117" s="1"/>
-        <i x="46" s="1"/>
-        <i x="6" s="1"/>
-        <i x="130" s="1"/>
-        <i x="12" s="1"/>
-        <i x="93" s="1"/>
-        <i x="21" s="1"/>
-        <i x="35" s="1"/>
-        <i x="112" s="1"/>
-        <i x="50" s="1"/>
-        <i x="77" s="1"/>
-        <i x="89" s="1"/>
-        <i x="75" s="1"/>
-        <i x="17" s="1"/>
-        <i x="66" s="1"/>
-        <i x="92" s="1"/>
-        <i x="53" s="1"/>
-        <i x="78" s="1"/>
-        <i x="103" s="1"/>
-        <i x="43" s="1"/>
-        <i x="131" s="1"/>
-        <i x="114" s="1"/>
-        <i x="52" s="1"/>
-        <i x="37" s="1"/>
-        <i x="67" s="1"/>
-        <i x="28" s="1"/>
-        <i x="73" s="1"/>
-        <i x="88" s="1"/>
-        <i x="109" s="1"/>
-        <i x="23" s="1"/>
-        <i x="126" s="1"/>
-        <i x="54" s="1"/>
-        <i x="55" s="1"/>
-        <i x="86" s="1"/>
-        <i x="13" s="1"/>
-        <i x="113" s="1"/>
-        <i x="30" s="1"/>
-        <i x="134" s="1"/>
-        <i x="47" s="1"/>
-        <i x="10" s="1"/>
-        <i x="85" s="1"/>
-        <i x="24" s="1"/>
-        <i x="18" s="1"/>
-        <i x="74" s="1"/>
-        <i x="9" s="1"/>
-        <i x="27" s="1"/>
-        <i x="105" s="1"/>
-        <i x="94" s="1"/>
-        <i x="106" s="1"/>
-        <i x="104" s="1"/>
-        <i x="16" s="1"/>
-        <i x="124" s="1"/>
-        <i x="137" s="1"/>
-        <i x="116" s="1"/>
-        <i x="140" s="1"/>
-        <i x="90" s="1"/>
-        <i x="48" s="1"/>
-        <i x="60" s="1"/>
-        <i x="122" s="1"/>
-        <i x="26" s="1"/>
-        <i x="5" s="1"/>
-        <i x="61" s="1"/>
-        <i x="80" s="1"/>
-        <i x="7" s="1"/>
-        <i x="0" s="1"/>
-        <i x="11" s="1"/>
-        <i x="76" s="1"/>
-        <i x="56" s="1"/>
-        <i x="95" s="1"/>
-        <i x="4" s="1"/>
-        <i x="99" s="1"/>
-        <i x="128" s="1"/>
-        <i x="64" s="1"/>
-        <i x="91" s="1"/>
-        <i x="20" s="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
-  <slicer name="size" xr10:uid="{8CC6537C-2457-F04C-B930-7CB0AD331B48}" cache="Slicer_size" caption="size" style="SlicerStyleLight2" rowHeight="230716"/>
-  <slicer name="price" xr10:uid="{BCC485D8-1330-5D49-97C7-E108EF8BE463}" cache="Slicer_price" caption="price" style="SlicerStyleDark2" rowHeight="230716"/>
-</slicers>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6627,8 +6220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CA3784-C9E1-CB41-92EF-8CCEDA055AD5}">
   <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6667,7 +6260,7 @@
         <v>76</v>
       </c>
       <c r="B1" s="17"/>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="14" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6679,10 +6272,10 @@
         <f>AVERAGE(Table2[price])</f>
         <v>212.55778894472363</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="22"/>
+      <c r="R2" s="19"/>
     </row>
     <row r="3" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -6698,14 +6291,14 @@
         <f>MEDIAN(Table2[price])</f>
         <v>211</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="21"/>
     </row>
     <row r="4" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="24">
         <v>4</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -6715,7 +6308,7 @@
         <f>SKEW(Table2[price])</f>
         <v>2.8166344222844242E-2</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="15" t="s">
         <v>64</v>
       </c>
       <c r="R4" s="8">
@@ -6726,7 +6319,7 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="24">
         <v>49</v>
       </c>
       <c r="N5" s="5" t="s">
@@ -6736,7 +6329,7 @@
         <f>KURT(Table2[price])</f>
         <v>-1.2336424992921056</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="15" t="s">
         <v>65</v>
       </c>
       <c r="R5" s="8">
@@ -6747,7 +6340,7 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="24">
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
@@ -6757,7 +6350,7 @@
         <f>MAX(Table2[price])</f>
         <v>350</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="15" t="s">
         <v>57</v>
       </c>
       <c r="R6" s="8">
@@ -6768,7 +6361,7 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="24">
         <v>24</v>
       </c>
       <c r="N7" s="5" t="s">
@@ -6778,7 +6371,7 @@
         <f>MIN(Table2[price])</f>
         <v>80</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="15" t="s">
         <v>66</v>
       </c>
       <c r="R7" s="8">
@@ -6789,7 +6382,7 @@
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="24">
         <v>1</v>
       </c>
       <c r="N8" s="5" t="s">
@@ -6799,7 +6392,7 @@
         <f>_xlfn.STDEV.S(Table2[price])</f>
         <v>79.021576309001006</v>
       </c>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="15" t="s">
         <v>67</v>
       </c>
       <c r="R8" s="8">
@@ -6810,10 +6403,10 @@
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="24">
         <v>1</v>
       </c>
-      <c r="Q9" s="19" t="s">
+      <c r="Q9" s="15" t="s">
         <v>68</v>
       </c>
       <c r="R9" s="8">
@@ -6824,10 +6417,10 @@
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="24">
         <v>35</v>
       </c>
-      <c r="Q10" s="19" t="s">
+      <c r="Q10" s="15" t="s">
         <v>58</v>
       </c>
       <c r="R10" s="8">
@@ -6838,10 +6431,10 @@
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="24">
         <v>2</v>
       </c>
-      <c r="Q11" s="19" t="s">
+      <c r="Q11" s="15" t="s">
         <v>69</v>
       </c>
       <c r="R11" s="8">
@@ -6852,10 +6445,10 @@
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="24">
         <v>7</v>
       </c>
-      <c r="Q12" s="19" t="s">
+      <c r="Q12" s="15" t="s">
         <v>70</v>
       </c>
       <c r="R12" s="8">
@@ -6866,10 +6459,10 @@
       <c r="A13" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="24">
         <v>3</v>
       </c>
-      <c r="Q13" s="19" t="s">
+      <c r="Q13" s="15" t="s">
         <v>71</v>
       </c>
       <c r="R13" s="8">
@@ -6880,10 +6473,10 @@
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="24">
         <v>14</v>
       </c>
-      <c r="Q14" s="19" t="s">
+      <c r="Q14" s="15" t="s">
         <v>72</v>
       </c>
       <c r="R14" s="8">
@@ -6894,10 +6487,10 @@
       <c r="A15" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="24">
         <v>1</v>
       </c>
-      <c r="Q15" s="19" t="s">
+      <c r="Q15" s="15" t="s">
         <v>73</v>
       </c>
       <c r="R15" s="8">
@@ -6908,10 +6501,10 @@
       <c r="A16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="24">
         <v>1</v>
       </c>
-      <c r="Q16" s="20" t="s">
+      <c r="Q16" s="16" t="s">
         <v>74</v>
       </c>
       <c r="R16" s="10">
@@ -6922,7 +6515,7 @@
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="24">
         <v>2</v>
       </c>
     </row>
@@ -6930,7 +6523,7 @@
       <c r="A18" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="15">
+      <c r="B18" s="24">
         <v>4</v>
       </c>
     </row>
@@ -6938,7 +6531,7 @@
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="15">
+      <c r="B19" s="24">
         <v>1</v>
       </c>
     </row>
@@ -6946,7 +6539,7 @@
       <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="15">
+      <c r="B20" s="24">
         <v>2</v>
       </c>
     </row>
@@ -6954,7 +6547,7 @@
       <c r="A21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="15">
+      <c r="B21" s="24">
         <v>8</v>
       </c>
     </row>
@@ -6962,7 +6555,7 @@
       <c r="A22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
     </row>
@@ -6970,7 +6563,7 @@
       <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="15">
+      <c r="B23" s="24">
         <v>11</v>
       </c>
     </row>
@@ -6978,7 +6571,7 @@
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="15">
+      <c r="B24" s="24">
         <v>3</v>
       </c>
     </row>
@@ -6986,7 +6579,7 @@
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="15">
+      <c r="B25" s="24">
         <v>7</v>
       </c>
     </row>
@@ -6994,7 +6587,7 @@
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="24">
         <v>14</v>
       </c>
     </row>
@@ -7002,7 +6595,7 @@
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="15">
+      <c r="B27" s="24">
         <v>2</v>
       </c>
     </row>
@@ -7010,7 +6603,7 @@
       <c r="A28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="24">
         <v>199</v>
       </c>
     </row>
@@ -7021,13 +6614,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7035,7 +6621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE90DDDF-A5AC-491B-AD70-BFA24C5B059B}">
   <dimension ref="A1:T203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A30" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -7087,10 +6673,10 @@
         <f>AVERAGE(Table2[price])</f>
         <v>212.55778894472363</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -7562,7 +7148,7 @@
       <c r="C23" s="1">
         <v>8</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="13">
         <v>211</v>
       </c>
       <c r="S23" s="3" t="s">
